--- a/outputs/a/quote_types/list_q_b.xlsx
+++ b/outputs/a/quote_types/list_q_b.xlsx
@@ -11,22 +11,24 @@
     <sheet name="A02 vie saint barbre" sheetId="2" r:id="rId2"/>
     <sheet name="A03 vie saint basille" sheetId="3" r:id="rId3"/>
     <sheet name="A04 vie saint christofle" sheetId="4" r:id="rId4"/>
-    <sheet name="A06 saint jean evangeliste" sheetId="5" r:id="rId5"/>
-    <sheet name="A07 vie saint jean paulus" sheetId="6" r:id="rId6"/>
-    <sheet name="A08 vie glorieux confesseur" sheetId="7" r:id="rId7"/>
-    <sheet name="A09 vie saint leu" sheetId="8" r:id="rId8"/>
-    <sheet name="A11 vie saint sebastien" sheetId="9" r:id="rId9"/>
-    <sheet name="A12 miracle saint servais" sheetId="10" r:id="rId10"/>
-    <sheet name="A13 vie seint thibault" sheetId="11" r:id="rId11"/>
-    <sheet name="A16 guillaume angleterre" sheetId="12" r:id="rId12"/>
-    <sheet name="A17 robert deable" sheetId="13" r:id="rId13"/>
-    <sheet name="A18 richart sans peour" sheetId="14" r:id="rId14"/>
-    <sheet name="A19 elegy troyes" sheetId="15" r:id="rId15"/>
-    <sheet name="A20 vieillards tués" sheetId="16" r:id="rId16"/>
-    <sheet name="A21 mauvais riche homme" sheetId="17" r:id="rId17"/>
-    <sheet name="A22 jeu des dez" sheetId="18" r:id="rId18"/>
-    <sheet name="A23 roy avoit amie" sheetId="19" r:id="rId19"/>
-    <sheet name="A25 quatre sereurs" sheetId="20" r:id="rId20"/>
+    <sheet name="A05 vie sainte dieudonnee" sheetId="5" r:id="rId5"/>
+    <sheet name="A06 saint jean evangeliste" sheetId="6" r:id="rId6"/>
+    <sheet name="A07 vie saint jean paulus" sheetId="7" r:id="rId7"/>
+    <sheet name="A08 vie glorieux confesseur" sheetId="8" r:id="rId8"/>
+    <sheet name="A09 vie saint leu" sheetId="9" r:id="rId9"/>
+    <sheet name="A10 poines enfer" sheetId="10" r:id="rId10"/>
+    <sheet name="A11 vie saint sebastien" sheetId="11" r:id="rId11"/>
+    <sheet name="A12 miracle saint servais" sheetId="12" r:id="rId12"/>
+    <sheet name="A13 vie seint thibault" sheetId="13" r:id="rId13"/>
+    <sheet name="A16 guillaume angleterre" sheetId="14" r:id="rId14"/>
+    <sheet name="A17 robert deable" sheetId="15" r:id="rId15"/>
+    <sheet name="A18 richart sans peour" sheetId="16" r:id="rId16"/>
+    <sheet name="A19 elegy troyes" sheetId="17" r:id="rId17"/>
+    <sheet name="A20 vieillards tués" sheetId="18" r:id="rId18"/>
+    <sheet name="A21 mauvais riche homme" sheetId="19" r:id="rId19"/>
+    <sheet name="A22 jeu des dez" sheetId="20" r:id="rId20"/>
+    <sheet name="A23 roy avoit amie" sheetId="21" r:id="rId21"/>
+    <sheet name="A25 quatre sereurs" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -685,7 +687,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -715,721 +717,141 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quant le clerc eust quinze ans, son pere aressonna:</t>
+          <t>Ceus vit iluec gesir en aspre penitance.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>“Beau pere,” dist le filz, “pour Dieu entendez cha.</t>
+          <t>“Saint Michiel,” dist saint Pol, “qui sont cil pecheor</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A Boulogne la Grant bonnes escolles a</t>
+          <t>Que je voi demener si tres aspre dolor?”</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>37</v>
+        <v>273</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sa seur moult tendrement commencha a plourer.</t>
+          <t>Que je voi demener si tres aspre dolor?”</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>“Beau filz,” ce dit le pere, “je te vueil commander:</t>
+          <t>“Ce sont,” dist saint Michiel “larron et ravisor</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>De l'arme de ta mere te vueillez remenber</t>
+          <t>Qui a la povre gent tollirent lor labor.”</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Que tu pries pour elle de ceur parfaitement.”</t>
+          <t>Ne pot goute vëoir por cele tenebror.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>“Si feroy je, beau pere,” dit le clerc, “vrayement,</t>
+          <t>“Saint Michiel,” dist saint Pol, “por Deu le creator,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Car je le doy bien faire et pour vous ensievvant.”</t>
+          <t>Enlumine mes iex de ta grant resplendor,</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>47</v>
+        <v>401</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Devant tous ses amys lui dist et creanta:</t>
+          <t>Aspres et engoisous, trop doloreusemens.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>“Fille,” dist ly bourgois, “or faites bonne chere</t>
+          <t>“Saint Michiel,” dist Saint Pol, “merci, por l'amor Dé,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pour la tresgrant amour que j'eu en vostre mere,</t>
+          <t>Qui sont cil pecheor el fons de cest fossé,</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A fame n'abiterai par le baron saint Pere.”</t>
+          <t>E celui brait et crie et ulle comme los.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>“Pere,” dit la puchele, “de chartain vous affy,</t>
+          <t>“Saint Michiel,” dist saint Pol, “qui est cil doloreus?”</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jamais jour de ma vie ne quier avoir amy</t>
+          <t>“Ce fu,” dist saint Michiel, “un evesque orgueillous;</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>73</v>
+        <v>452</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A elle est venus et si l'aressonna:</t>
+          <t>“Saint Michiel,” dist saint Pol, “qui est cil doloreus?”</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>“Belle fille,” dit il, “jesir te convendra</t>
+          <t>“Ce fu,” dist saint Michiel, “un evesque orgueillous;</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>En ceste chambre ycy, quant le mal te prendra;</t>
+          <t>Tant com vesqui a monde si fu luxurious.”</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>76</v>
+        <v>502</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Car elle est loing de gens, chertes, et de la rue.”</t>
+          <t>Et l'apostre saint Pol qui en Dex a s'amor.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>“Par foy,” dit elle, “pere; le diable si m'argue</t>
+          <t>“Saint Michiel,” dist saint Pol, “por l'amor Dex merci;</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Chascun jour de mal faire, tout le sanc me remue</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>79</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>D'um peché ou je vois que je suis enbatue.”</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>“Fille,” ce dit le pere, “ne te esmaye point.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Quant seras delivree, nourir feroy l'enfant</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>88</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Par grant couroult de ceur sa fille respondy:</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>“Certes, pere,” dit elle, “je le vueil et otry.”</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Or furent ilz tous deux souprins de l'anemy.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>109</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Qu'elle estoit delivree. Si fut moult esperdus:</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>“He, mauvaise,” dit-il, “qu'est l'enfant devenus</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Qui de moy en tom corps si a este concheux?”</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>111</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Qui de moy en tom corps si a este concheux?”</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>“Certes,” dit elle, “pere, je l'ay occys a mort</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Et mys en ceste fosse par moult grant desconfort.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>114</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Quant le bourgois l'entent, ses poins bat et deteurt.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>“Las,” dit il, “dampnés sommes, se croy je sans ressort.”</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>“Fille,” dit ly bourgois, “se justice savoit</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>115</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>“Las,” dit il, “dampnés sommes, se croy je sans ressort.”</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>“Fille,” dit ly bourgois, “se justice savoit</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Le meudre, de chartain en ung feu on t'ardroit.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>119</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>De ceste fosse ycy ay le ceur moult destroit.”</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>“Belle fille,” dit il, “cy a malle journee.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Je doi bien haïr l'eure que tu fus onques nee.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>127</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Au meudre, de chartain moult se desconforta.</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>“Lasse,” dit la chetive, “de forte heure fus nee,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>J'ay tué mon enfant, bien doibts estre dampnee.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>154</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Tantost lui demanda par quelle avanture:</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>“Ma seur,” ce dit le clerc, “ne me le chelez mye,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Qui vous amaine ycy, je croy que c'est follie?</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>157</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Comment le fait mon pere, est il encore en vie?”</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>“Nennil,” dist elle, “frere, dont je suys moult marie.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Plus a d'un an entier, frere, qu'il trespassa.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>164</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>“Ma seur, ce dit le clerc, aveuc moy demourez.”</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>“Par foy,” dit elle, frere, “puis que vous le voulez.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Je ne say com rendray les biens que me ferez.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>198</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Adont si la courut entre ses bras saisir.</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>“Ma seur,” ce dit le clerc, “que tu es apalie!</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Ton enfant, ou est il, ne me le cheles mye.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>203</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Quant le clerc l'entendi, si fut moult a malaise.</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>“Lass,” belle seur, “dit il, que tu es tres mauvaise!</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Le diable veult porter ton ame en la fournaise</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>206</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>D'enfer ou tu seras tousjours bien a malaise.”</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>“Ma seur,” ce dit le clerc, “de ce grant pechié cy</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Te convient contesser, a Dieu crye mercy.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>252</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>“Et je vous serviray, sire, vostre mercy.”</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>“Or venés aveuc moy,” dit il, “je vous en pry.”</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>En son hostel la maine, richement la vesty.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>268</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>A sa fame s'en vint et bien l'aressonna:</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>“Par m a foy,” ce dit il, “mauvaise chiere a ja,</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Dame, vostre nourice qui pleure chascun jour.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>270</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Dame, vostre nourice qui pleure chascun jour.”</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>“Sire,” dit la juïfve, “par Dieu mon creatour,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Moy mesmes en suis en moult tres grant errour.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>273</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Aucun pechié a fait dont elle est en tristour.”</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>“Voire,” ce dit le juif, “aucune diablerye</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>A fait, ung tel pechie dont elle en est marie.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>277</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Qu'elle fust onques heure ne nul jour resjouÿe.”</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>“Sire,” ce dist la juifve, “de ce ne peult challoir.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>De nourrir nostre enfant fait moult bien son devoir,</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>280</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Beaux et et gracïeulx, vous le povez bien voir.”</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>“Ma seur,” ce dit le juif, “vous me dites bien voir.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Mais je say telle place que point vous ne savez.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>291</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>A sa nourrice vient et si l'aressonna:</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>“Christïanne,” dit elle, “sais tu que tu feras?</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Quant nous serons couchiez, encore nuyt vendras</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>304</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>La juïfve apella tantost le sien mary:</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>“Sire, par grant amour,” dit elle, “je vous pry,</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Ensaignez moi la place dont parler vous ouÿ,</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>320</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Gardés que ne le sache par vous nul christïan.”</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>“Sire,” ce dit la fame, “par moy n'en savont rien.”</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Ce mot la pecheresse entendy moult tres bien.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>358</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Une belle oraison qui dite vous sera:</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>“Dieu,” dit la pecheresse, “je ne say que je face.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>L'anemy moult forment chascum jour me menache.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>378</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Que de tous tes meffais aura t'ame mercy.”</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>“Fame,” dist le saint angre, “il te fault endurer</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Sept ans vetir la here et tous les jours juner,</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>382</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Et Dieu tous tes meffais te voudra pardonner.”</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>“Amye,” dit le saint angre, “fay ce que je te dy,</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Je m'en revois aulx chieulc, ne puis demourer cy.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>414</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Que ses vertus y fache briefment sans targier.”</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>“Certes,” dist la juïfve, “bien le veil ottroyer.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>S'il revient a mon filz la vie en corps arryer</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>443</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>La pecheresse aussi si le courut baiser.</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>“Frere,” se dit la juifve, “faisons nous baptiser.”</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>“Ma seur,” se dit le fuig, “je le veil octroyer.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>444</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>“Frere,” se dit la juifve, “faisons nous baptiser.”</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>“Ma seur,” se dit le fuig, “je le veil octroyer.”</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Lors vindrent a la ville ces vertus denoncher.</t>
+          <t>Ci est le pui d'enfer; bien avant si me di.</t>
         </is>
       </c>
     </row>
@@ -1439,6 +861,856 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Quant le clerc eust quinze ans, son pere aressonna:</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>“Beau pere,” dist le filz, “pour Dieu entendez cha.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A Boulogne la Grant bonnes escolles a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>37</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sa seur moult tendrement commencha a plourer.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>“Beau filz,” ce dit le pere, “je te vueil commander:</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>De l'arme de ta mere te vueillez remenber</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Que tu pries pour elle de ceur parfaitement.”</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>“Si feroy je, beau pere,” dit le clerc, “vrayement,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Car je le doy bien faire et pour vous ensievvant.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>47</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Devant tous ses amys lui dist et creanta:</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>“Fille,” dist ly bourgois, “or faites bonne chere</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Pour la tresgrant amour que j'eu en vostre mere,</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>51</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A fame n'abiterai par le baron saint Pere.”</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>“Pere,” dit la puchele, “de chartain vous affy,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Jamais jour de ma vie ne quier avoir amy</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>73</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>A elle est venus et si l'aressonna:</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>“Belle fille,” dit il, “jesir te convendra</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>En ceste chambre ycy, quant le mal te prendra;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>76</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Car elle est loing de gens, chertes, et de la rue.”</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>“Par foy,” dit elle, “pere; le diable si m'argue</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Chascun jour de mal faire, tout le sanc me remue</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>79</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>D'um peché ou je vois que je suis enbatue.”</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>“Fille,” ce dit le pere, “ne te esmaye point.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Quant seras delivree, nourir feroy l'enfant</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>88</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Par grant couroult de ceur sa fille respondy:</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>“Certes, pere,” dit elle, “je le vueil et otry.”</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Or furent ilz tous deux souprins de l'anemy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>109</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Qu'elle estoit delivree. Si fut moult esperdus:</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>“He, mauvaise,” dit-il, “qu'est l'enfant devenus</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Qui de moy en tom corps si a este concheux?”</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Qui de moy en tom corps si a este concheux?”</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>“Certes,” dit elle, “pere, je l'ay occys a mort</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Et mys en ceste fosse par moult grant desconfort.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>114</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Quant le bourgois l'entent, ses poins bat et deteurt.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>“Las,” dit il, “dampnés sommes, se croy je sans ressort.”</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>“Fille,” dit ly bourgois, “se justice savoit</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>115</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>“Las,” dit il, “dampnés sommes, se croy je sans ressort.”</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>“Fille,” dit ly bourgois, “se justice savoit</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Le meudre, de chartain en ung feu on t'ardroit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>119</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>De ceste fosse ycy ay le ceur moult destroit.”</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>“Belle fille,” dit il, “cy a malle journee.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Je doi bien haïr l'eure que tu fus onques nee.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>127</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Au meudre, de chartain moult se desconforta.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>“Lasse,” dit la chetive, “de forte heure fus nee,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>J'ay tué mon enfant, bien doibts estre dampnee.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>154</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tantost lui demanda par quelle avanture:</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>“Ma seur,” ce dit le clerc, “ne me le chelez mye,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Qui vous amaine ycy, je croy que c'est follie?</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>157</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Comment le fait mon pere, est il encore en vie?”</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>“Nennil,” dist elle, “frere, dont je suys moult marie.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Plus a d'un an entier, frere, qu'il trespassa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>163</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Qu'il lui face mercy et a tous trespassés.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>“Ma seur,” ce dit le clerc, “aveuc moy demourez.”</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>“Par foy,” dit elle, “frere, puis que vous le voulez.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>164</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>“Ma seur,” ce dit le clerc, “aveuc moy demourez.”</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>“Par foy,” dit elle, “frere, puis que vous le voulez.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Je ne say com rendray les biens que me ferez.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>198</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Adont si la courut entre ses bras saisir.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>“Ma seur,” ce dit le clerc, “que tu es apalie!</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Ton enfant, ou est il, ne me le cheles mye.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>203</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Quant le clerc l'entendi, si fut moult a malaise.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>“Lass, belle seur,” dit il, “que tu es tres mauvaise!</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Le diable veult porter ton ame en la fournaise</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>206</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>D'enfer ou tu seras tousjours bien a malaise.”</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>“Ma seur,” ce dit le clerc, “de ce grant pechié cy</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Te convient contesser, a Dieu crye mercy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>252</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>“Et je vous serviray, sire, vostre mercy.”</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>“Or venés aveuc moy,” dit il, “je vous en pry.”</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>En son hostel la maine, richement la vesty.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>268</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>A sa fame s'en vint et bien l'aressonna:</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>“Par m a foy,” ce dit il, “mauvaise chiere a ja,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Dame, vostre nourice qui pleure chascun jour.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>270</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Dame, vostre nourice qui pleure chascun jour.”</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>“Sire,” dit la juïfve, “par Dieu mon creatour,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Moy mesmes en suis en moult tres grant errour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>273</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Aucun pechié a fait dont elle est en tristour.”</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>“Voire,” ce dit le juif, “aucune diablerye</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>A fait, ung tel pechie dont elle en est marie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>277</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Qu'elle fust onques heure ne nul jour resjouÿe.”</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>“Sire,” ce dist la juifve, “de ce ne peult challoir.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>De nourrir nostre enfant fait moult bien son devoir,</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>280</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Beaux et et gracïeulx, vous le povez bien voir.”</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>“Ma seur,” ce dit le juif, “vous me dites bien voir.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mais je say telle place que point vous ne savez.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>291</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A sa nourrice vient et si l'aressonna:</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>“Christïanne,” dit elle, “sais tu que tu feras?</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Quant nous serons couchiez, encore nuyt vendras</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>304</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>La juïfve apella tantost le sien mary:</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>“Sire, par grant amour,” dit elle, “je vous pry,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Ensaignez moi la place dont parler vous ouÿ,</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>311</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Et le juif si respont a basse vois serye:</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>“Ma seur,” ce dit le juif, “envers moy entendez.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Dedens nostre jardin, que bien vous le savez,</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>320</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Gardés que ne le sache par vous nul christïan.”</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>“Sire,” ce dit la fame, “par moy n'en savont rien.”</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Ce mot la pecheresse entendy moult tres bien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>358</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Une belle oraison qui dite vous sera:</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>“Dieu,” dit la pecheresse, “je ne say que je face.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>L'anemy moult forment chascum jour me menache.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>370</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Qui la myt a raison moult debonnairement:</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>“Fame,” dit le saint angre, “par moy te mande Dieu</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Que tu te reconfortes, et tu en vauldras mieulx.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>378</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Que de tous tes meffais aura t'ame mercy.”</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>“Fame,” dist le saint angre, “il te fault endurer</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Sept ans vetir la here et tous les jours juner,</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>382</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Et Dieu tous tes meffais te voudra pardonner.”</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>“Amye,” dit le saint angre, “fay ce que je te dy,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Je m'en revois aulx chieulc, ne puis demourer cy.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>414</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Que ses vertus y fache briefment sans targier.”</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>“Certes,” dist la juïfve, “bien le veil ottroyer.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>S'il revient a mon filz la vie en corps arryer</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>443</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>La pecheresse aussi si le courut baiser.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>“Frere,” se dit la juifve, “faisons nous baptiser.”</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>“Ma seur,” se dit le fuig, “je le veil octroyer.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>444</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>“Frere,” se dit la juifve, “faisons nous baptiser.”</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>“Ma seur,” se dit le fuig, “je le veil octroyer.”</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Lors vindrent a la ville ces vertus denoncher.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -1653,242 +1925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>169</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Avras et grans meschief mais Dieus qui sur tous vaut</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Le te rendra moult bien” lors la vois s'en parti</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Et le roy d'Angleterre requist a Dieu merci</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>286</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Que l'un de mes enfans mengier me covendra</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Se je n'ai char ou pain” lors le roy souspira</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Il a traite s'espee sa chausce desferma</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>295</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Se je vous voi couper ja se Dieu plest mes dens</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>N'usseront vostre char” le roi qui fu dolens</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Respondi douce suer ne puis trouver pourpens”</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>444</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Forment prist apleurer et dist “Vierge Marie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Or ai je tout perdu” lors vint celle partie</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ou la bource au marchéant fu pendant demouree</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>592</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Doucement dist “Seingneur el non du dous ihesus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Metez moi en vos nef” l'un d'eus a respondu</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>“Biaus amis dont viens tu moult as sousfert de paine</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>686</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Je vous ai trop cousté dieu me doint vivre tant</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Que le vous puisse rendre” lors le preudon pleurant</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Li fist donner .x. livres et un cheval courant</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>718</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Le fortier dist “Sire bersant vont par le bois</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Ceste beste ont tuee” le seingneur fu courtois</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Il dist “Je leur pardoins pour Dieu a ceste fois</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>797</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Se le roy revenoit de quoy vous me parlés</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Seroit il receus” son neveu dist errant</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>“Ouil se Dieus me gart a sollanpnité grant</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>824</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cëans a tel jouel qui vault je vous afi</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Plus de tiex .xxx. anniaus” la dame respondi</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>“Je ne weil que l'annel” adont le roy li tant</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>825</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Plus de tiex .xxx. anniaus” la dame respondi</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>“Je ne weil que l'annel” adont le roy li tant</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>En soupirant li dist je vous jur lëaument</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -1920,261 +1957,261 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N'en sai nule ne soit ou trop haute ou trop basse</t>
+          <t>Ne vous ne vostre pere (dont Dieus asoille l'ame!),</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ou que ne m'apartiengne.” l'un d'euz dist sanz espasse</t>
+          <t>Que vous le fassiez rendre.” Cil qui fu sans disfame,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>“Chier sire je sai telle; dont ja n'arez vergoigne</t>
+          <t>Li dist: “Je le weil bien, foy que doy Nostre Dame!”</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Il a mandé Robert et li dit son avis</t>
+          <t>Avras et grans meschief; mais Dieus, qui sur tous vaut,</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>“Biaux filz” ce dit le duc “Chevalier vous vueil faire</t>
+          <t>Le te rendra moult bien.” Lors la vois s'en parti;</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mais muer vous faudra et changier vostre afaire</t>
+          <t>Et le roy d'Angleterre requist a Dieu merci,</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aus bons; mais grever doit les felons de put aire”</t>
+          <t>Que l'un de mes enfans mengier me covendra,</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>“Bien l'acort” dist Robert “Mais par foy ne me chaut</t>
+          <t>Se je n'ai char ou pain.” Lors le roy souspira;</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>En quel estat je soie chevalier ou ribaut</t>
+          <t>Il a traite s'espee, sa chausce desferma</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Qui de cuer le verroie morir devant mes yex</t>
+          <t>Se je vous voi couper. Ja, se Dieu plest, mes dens</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Trop m'a fait de courous” lors parla .i. hons viex</t>
+          <t>N'usseront vostre char.” Le roi, qui fu dolens,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Et dist “Sire je lo; que Robert soit mandez.</t>
+          <t>Respondi: “Douce suer, ne puis trouver pourpens</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>360</v>
+        <v>444</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La duchesse dist “Filz certes la coupe est moie</t>
+          <t>Forment prist a pleurer et dist: “Vierge Marie,</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>De vostre mauvaistie.” lors li conta la voie</t>
+          <t>Or ai je tout perdu.” Lors vint celle partie</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Comment elle l'avoit au dëable donné</t>
+          <t>Ou la bource au marcheant fu pendant demouree,</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>419</v>
+        <v>592</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Est devenu pereschierres il se moque de nous”</t>
+          <t>Doucement dist: “Seingneur, el non du dous Jhesus,</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>“Non fais ce” dist Robert “Par la foy que doi vous</t>
+          <t>Metez moi en vos nef.” L'un d'eus a respondu:</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Criez a Dieu merci et il vous sera dous</t>
+          <t>“Biaus amis, dont viens tu? Moult as sousfert de paine;</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>425</v>
+        <v>686</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Que laissaisse l'embler ne porroie estre en pais”</t>
+          <t>Je vous ai trop cousté: Dieu me doint vivre tant</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>“Ne moi.” Ce dist li autres touz furent d'un acort</t>
+          <t>Que le vous puisse rendre.” Lors le preudon pleurant</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Que ne lairont l'embler dessiques a la mort</t>
+          <t>Li fist donner dix livres et un cheval courant;</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>500</v>
+        <v>718</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Quant le pappe l'oÿ. si li a dit em bas</t>
+          <t>Le fortier dist: “Sire, bersant vont par le bois;</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>“Biaus amis dont es tu.” robert dist sens espas.</t>
+          <t>Ceste beste ont tuee.” Le seingneur fu courtois,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>“A Roen la cité fu né ce n'est pas fable</t>
+          <t>Il dist: “Je leur pardoins, pour Dieu, a ceste fois;</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>744</v>
+        <v>771</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Et qu'il s'est combatu a escu et a lance”</t>
+          <t>“Est donques celui mort a qui ce cornet fu?”</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>“Pour tant vous envoit Diex” dist le roy “Grant meschance</t>
+          <t>“Ouil, sire,” dist il, “puis qu'il n'est revenu.”</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Enseignier la devez et vous l'afolez toute.</t>
+          <t>Adonques s'en parti, plus n'i a atendu;</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>839</v>
+        <v>797</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Par .iii. foiz sus Paiens moult y souffri de chaut.”</t>
+          <t>Se le roy revenoit de quoy vous me parlés,</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>“Seneschal” dist le roy “Pour le cors saint Thibaut</t>
+          <t>Seroit il receus?” Son neveu dist errant:</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fustes vous la pour moi” “Ouil se Diex me saut”</t>
+          <t>“Ouïl, se Dieus me gart, a sollanpnité grant;</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>841</v>
+        <v>801</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fustes vous la pour moi” “Ouil se Diex me saut”</t>
+          <t>Serés mon seneschal des or mes en avant.”</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>“Seneschal” dist le roy “Preuz estes et gentis</t>
+          <t>“Non ferai,” dit le roy, “l'osfice n'ai pas chiere;</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Par m'ame je cuidoie que fussiez anemis”</t>
+          <t>Que, se le roy Guillaume repairoit ca arriere,</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Par m'ame je cuidoie que fussiez anemis”</t>
+          <t>Cëans a tel jouel qui vault, je vous afi,</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>“Sire” dist le traitre “N'en soiez esbahis</t>
+          <t>Plus de tiex trente anniaus.” La dame respondi:</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Loial cuer ne faut point au fort a ses amis”</t>
+          <t>“Je ne weil que l'annel.” Adont le roy li tant;</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>885</v>
+        <v>825</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Qui est le saint preudomme dont vous alez parlant”</t>
+          <t>Plus de tiex trente anniaus.” La dame respondi:</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>“Sire” dist la pucelle qui n'estoit pas vilainne</t>
+          <t>“Je ne weil que l'annel.” Adont le roy li tant;</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>“Je vous dirai du fait la verité certaine”</t>
+          <t>En soupirant li dist: “Je vous jur lëaument</t>
         </is>
       </c>
     </row>
@@ -2183,9 +2220,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2215,1101 +2252,261 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Et si n'a pos troys jours, je croy, qu'elle fust nee.”</t>
+          <t>N'en sai nule ne soit ou trop haute ou trop basse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>“Or la me gardés bien,” dist le duc, “je vous pry.”</t>
+          <t>Ou que ne m'apartiengne.” L'un d'euz dist sanz espasse:</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>“Voullentiers, mon seigneur,” la dame respondy.</t>
+          <t>“Chier sire, je sai telle dont ja n'arez vergoigne;</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>“Or la me gardés bien,” dist le duc, “je vous pry.”</t>
+          <t>Il a mandé Robert et li dit son avis:</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>“Voullentiers, mon seigneur,” la dame respondy.</t>
+          <t>“Biaux filz,” ce dit le duc, “chevalier vous vueil faire;</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Atant le duc Richart de la se depparty.</t>
+          <t>Mais muer vous faudra et changier vostre afaire.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dont venoyt ne qu'il quiert ne qui l'amena la.</t>
+          <t>Aus bons, mais grever doit les felons de put aire.”</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>“Comment,” se dist Richart, “ne fus tu pas pieca</t>
+          <t>“Bien l'acort,” dist Robert, “mais par foy ne me chaut</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Seneschal de ma court et mourus ung an a?”</t>
+          <t>En quel estat je soie, chevalier ou ribaut,</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>113</v>
+        <v>272</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Seneschal de ma court et mourus ung an a?”</t>
+          <t>Qui de cuer le verroie morir devant mes yex,</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>“Ouy,” dist l'escuier, “seneschaulx ay je esté</t>
+          <t>Trop m'a fait de courous.” Lors parla uns hons viex</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>De toute vostre court, mais je suis trespassé.”</t>
+          <t>Et dist: “Sire, je lo que Robert soit mandez</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>115</v>
+        <v>360</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>De toute vostre court, mais je suis trespassé.”</t>
+          <t>La duchesse dist: “Filz, certes la coupe est moie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>“Tu dis voir,” dist Richart, “il y a ung an passé.</t>
+          <t>De vostre mauvaistie.” Lors li conta la voie</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Je ne scay quelz viz diables t'ont ore suxité.”</t>
+          <t>Comment elle l'avoit au deable donné</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>117</v>
+        <v>419</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Je ne scay quelz viz diables t'ont ore suxité.”</t>
+          <t>Est devenu pereschierres; il se moque de nous.”</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>“Sire,” dist l'escuier, “n'ayés pas esperance</t>
+          <t>“Non fais ce,” dist Robert, “par la foy que doi vous;</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Que suxité soye je, mais ja fais ma penance,</t>
+          <t>Criez a Dieu merci et il vous sera dous.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>121</v>
+        <v>425</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Que Helequin conquist du tout a sa plaisance.”</t>
+          <t>Que laissaisse l'embler; ne porroie estre en pais.”</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>“Comment,” se dist Richart, “est il bien si hardy</t>
+          <t>“Ne moi,” ce dist li autres. Touz furent d'un acort</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Que sans mon congé chasse en ceste forest cy?</t>
+          <t>Que ne lairont l'embler dessiques a la mort,</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ainsi scavray qu'il est et parleray a luy.”</t>
+          <t>Quant le pappe l'oÿ, si li a dit em bas:</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>“Sire,” dist l'escuier, “par la foy que vous doy,</t>
+          <t>“Biaus amis, dont es tu?” Robert dist sens espas:</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Je le vous monstreray par la foy que vous doy.”</t>
+          <t>“A Roen la cité fu né, ce n'est pas fable,</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>127</v>
+        <v>744</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Je le vous monstreray par la foy que vous doy.”</t>
+          <t>Et qu'il s'est combatu a escu et a lance.”</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>“Amys,” se dit Richart, “par fine amour t'en proy.”</t>
+          <t>“Pour tant vous envoit Diex,” dist le roy, “grant meschance.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>L'escuier y mena Richart avecques soy</t>
+          <t>Enseignier la devez et vous l'afolez toute.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>132</v>
+        <v>839</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Qui sans congé l'a faict en la forest entrer.</t>
+          <t>Par trois foiz sus paiens; moult y souffri de chaut.”</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>“Amis,” dist Helequin, “tu le m'arras compter.</t>
+          <t>“Seneschal,” dist le roy, “pour le cors saint Thibaut,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dieu qui est nostre maistre nous a donné congé</t>
+          <t>Fustes vous la pour moi?” “Ouïl, se Diex me saut.”</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>184</v>
+        <v>841</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Comment les charbonniers l'avoient ainsi laissés.</t>
+          <t>Fustes vous la pour moi?” “Ouïl, se Diex me saut.”</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>“Par foy,” dist duc Richart, “je suis tous esbahis</t>
+          <t>“Seneschal,” dist le roy, “preuz estes et gentis,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Que les charbonniers qui passent cy jour et nuys</t>
+          <t>Par m'ame, je cuidoie que fussiez anemis.”</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>343</v>
+        <v>843</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Qui apres vo mort puisse Normandië tenir.”</t>
+          <t>Par m'ame, je cuidoie que fussiez anemis.”</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>“Seigneurs,” ce dist le duc, “quant vous le me loés,</t>
+          <t>“Sire,” dist le traitre, “n'en soiez esbahis;</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Je m'accord voullentiers tout a vo voulentés,</t>
+          <t>Loial cuer ne faut point au fort a ses amis.”</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>349</v>
+        <v>885</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Car plus belle trouver a mon gré ne pourroye.”</t>
+          <t>Qui est le saint preudomme dont vous alez parlant?”</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>“Sire,” font les barons, “Dieu vous en envoit joye!</t>
+          <t>“Sire,” dist la pucelle, qui n'estoit pas vilainne,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Plaise vous l'espouser quant vo cueur si octroye.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>359</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Et fist mander Richart pour dire son couraige.</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>“Sire,” dist le dïable, “vous estes mon mary,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Et je suis vostre femme, mais trop mallade suy.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>363</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Que m'octroyés ung don par la vostre mercy.”</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>“Demandés,” dist le duc, “et vous n'y fauldrés mye.”</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>“Sire,” je vous supplie, “s'i fault que je devie,</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>364</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>“Demandés,” dist le duc, “et vous n'y fauldrés mye.”</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>“Sire,” je vous supplie, “s'i fault que je devie,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Que en une chappelle a lieuë et demye</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>371</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Veillés mon corps la nuict ains que soye enterree.”</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>“Dame,” ce dist Richart, “bien m'y vueil octroyer</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Que, se vous trespassés, de vous la nuict veiller</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>409</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Le corps qui gisoit la s'escria hautement:</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>“Et comment,” duc Richart, “ouvrés vous tellement?</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>On parle en tous paÿs de vostre hardement,</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>416</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>De moy avés päour! Je le voy bien et scay.”</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>“Par ma foy,” dist Richart, “vous y mentés. Non ay!</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Car oncques pour personne ma coulleur ne muay.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>433</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Voir oncques n'euz päour en tournoy ne en guerre.”</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>“Richart,” se dist le corps, “dis tu que je me serre?</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Pourquoy sachas tu donc l'espeë hors du feurre</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>439</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Mortë en celle biere quant on vous mist icy?”</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>“Nanil,” se dist le corps, “ains entoye pasmee</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Par une soif que j'eu trop grant une vespree,</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>451</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Mieulx ne me pourrïés ma santé avancer</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Que de m'en apporter.” Lors Richart y alla,</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Mais ce fut fol ydee. L'ennemy se leva</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>468</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>A la biere s'en vint, si l'a dedans couché.</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>“Comment,” dist il, “faulx diable, m'as tu si engigné</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Qu'en tant mon chevallier as mort et despecé</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>489</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Du diable qui luy avoit fait honte et diffame.</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>“Ne chantés,” dist Richart, “seigneurs, plus pour ma femme.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Les grans diables d'enfer en puissent porter l'ame!”</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>491</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Les grans diables d'enfer en puissent porter l'ame!”</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>“Si,” font il. “Je scay bien que ce estoit ung diable</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Que j'avoye espousé, le tresplus decepuable</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>501</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Sire, ne soyez ja pour ce desconforté.”</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>“Non suis je,” dist Richart, “mais trop suis tourmenté</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Que ce diable a sept ans ou plus o moy esté.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>524</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Ou qu'elz voient le duc hault l'ont arraisonné:</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>“Comment, sire,” font ilz, “estes vous rassotté</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Qui ainsi q'ung reclus vous tenés enserré,</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>575</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Brundemor vint au duc si l'a a raison mis:</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>“Sire,” dist Brundemor, “ai ge fait vostre gré.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Me suis je en vostre guerre bien loyaulment prouvé?”</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>577</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Me suis je en vostre guerre bien loyaulment prouvé?”</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>“Ouÿ,” se dist Richart, “preux estes et sené!</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Huy m'avez fait l'honneur, courtoisie et bonté,</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>583</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Pourtant que me vueillés venir querre ou mander.”</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>“Sire,” dist Brundemor, “je m'en attens a vous.”</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Lors se sont departy Richart et ses gens tous</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>611</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Se vous ne voulez estre couart et mensonger.”</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>“Couart,” se dist Richart, “et pourquoy le seroie?</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Se ne sera des mors pour chose que je voye.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>619</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Vous menray en tel lieu ou vous avrés päour.”</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>“Beaulx amis,” dist Richart, “or ne dis pas ainsi,</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Car oncques n'euz päour depuis que je nasqui.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>621</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Car oncques n'euz päour depuis que je nasqui.”</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>“Par mon chef, sire duc,” ce respond l'ennemy,</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>“Si avrés vous päour ains le jour esclarcy,</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>624</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Se d'avec moy venir faites vostre devoir.”</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>“Ouÿ, voir,” dist Richart, “je vueil aller scavoir</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Se tu me mentiras ou tu me diras voir</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>633</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Qui sont ses gens armés qu'enmy ces champs je voy.”</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>“Sire,” ce dist le diable, “ains qu'il soilt jour, je croy,</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Avrés par eulx, je croy, päour et grant esfroy.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>651</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Pour moy se combatra en bataille ordonnee.”</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>“Or allés,” dist le roy, “se vous en delivrés.”</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>“Sire,” dist Brundemor, “si com vous commandés.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>652</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>“Or allés,” dist le roy, “se vous en delivrés.”</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>“Sire,” dist Brundemor, “si com vous commandés.”</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Richart fit de ses armes garny et apprestés,</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>668</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Quant Burgifer les coups du duc Richart senty:</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>“Sire,” dist il au duc, “je suis tout esbahy.</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Comment avés esté si fol ne si hardy</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>673</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Aussi le perdrés vous, je le vous certifie.”</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>“Amis,” ce dist Richart, “ne te crains une allie.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Fay du pis que pourras, et si ne te fain mie.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>675</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Fay du pis que pourras, et si ne te fain mie.”</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>“Sire,” dist Burgifer, “ung petit m'entendés.</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Je vous prie et requier: dictes moy se scavés</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>678</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Qui est ce chevallier pour qui vous combatés.”</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>“Par ma foy,” dist Richart, “je le congnoys assés:</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Il est moult vaillant homme, hardy, puissant et fors.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>683</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Se bien ne m'eust aidé. Certes, c'est ung bon corps.”</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>“Le duc,” dist Burgifer, “com as folle pensee!</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Saichés c'est ung diable pour qui tu fais merlee,</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>688</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Puis dist a Burgifer: “Bien croy que tu te mens.”</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>“Non fay,” se dist le diable, “car il a moult long temps</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Qu'en enfer se vanta de vous faire tourmens</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>696</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Et ainsi l'a il fait maintenent, bien le voy.”</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>“Non avoit,” dist Richart, “car oncques päour n'oy.”</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>“Non?” ce dist Burgifer, “or vous tenés ung po</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>697</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>“Non avoit,” dist Richart, “car oncques päour n'oy.”</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>“Non?” ce dist Burgifer, “or vous tenés ung po</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Et vous scavrés s'eüstes oncques päour n'effroy</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>723</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Quant le duc ouyt ses motz, si dist en sa pensee:</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>“Par ma foy,” dist Richart, “ce diable cy dit voir!</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Les fortunes qu'ay eues scait bien ramentevoir.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>727</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Ce que fait ens ou ciecle? En avés le povoir?”</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>“Ouÿ,” dist Burgifer, “nous scavons par congé</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Quanque font toute gent qui vivent en peché,</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>731</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Nous n'en scavons plus riens, tout avons oublié.”</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>“Burgifer,” dist Richart, “je te pry or me dy,</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Ce Brundemor pour qui je me combas a ty,</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>735</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Qu'en guise d'une femme j'espousay et plevvy?”</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>“Ouÿ,” dist Burgifer, “c'est bien verité pure.</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>C'est celle que baillastes sept ans a nourriture.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>737</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>C'est celle que baillastes sept ans a nourriture.”</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>“Par mon chef,” dist Richart, “mis m'as en adventure,</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Mais encor luy vint il d'assés franche nature</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>751</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Mais ne luy peust mesfaire. Lors luy dist a hault cry:</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>“Comment,” ce dist Richart, “faulx diables Burgifer,</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Tu es plus dur assés que n'est assier ne fer.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>779</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Que faulcement luy as par ta force ravie.”</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>“Sire,” dist Burgifer, “et je m'en dessaisy,</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Et voyant a voz yeulx la luy rens des issi.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>787</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Que Burgifer luy eut tollue par envie.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>“Brundemor,” dist Richart, “il m'en convient aller</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Puis que jay la bataille fait du tout achever.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>791</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Mais monstre moy la voye par ou doy retourner.”</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>“Sire,” dist Brundemor, “tout a vostre commant,</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Car mieulx y suis tenu que vous n'allés pensant,</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>795</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Et si fu vostre femme sept ans en ung tenant.”</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>“Tant suis je,” dist Richart, “au cueur plus courroucés</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Quant ung diable si m'a tellement engignés.</t>
+          <t>“Je vous dirai du fait la verité certaine.”</t>
         </is>
       </c>
     </row>
@@ -3318,9 +2515,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3350,256 +2547,1061 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D'ardir l'un apres l'atre. Adon lo Qadosh li dit,</t>
+          <t>Et si n'a pos troys jours, je croy, qu'elle fust nee.”</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>“Fetes grant fo, mavés on!” De blamer s'anhardit.</t>
+          <t>“Or la me gardés bien,” dist le duc, “je vous pry.”</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mot bele fu sa fin d'enivré Dan Bandit.</t>
+          <t>“Voullentiers, mon seigneur,” la dame respondy.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>E dit: “c'eit por ma meinie que me vëes ci deseperer,</t>
+          <t>“Or la me gardés bien,” dist le duc, “je vous pry.”</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ce n'eit pas por mon cors.” Ardir se fit san demorer.</t>
+          <t>“Voullentiers, mon seigneur,” la dame respondy.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ce fu R. Shimeon Sofer qui si bien saveit orer.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>37</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Seur mambres et seur vie, seur ses eritemanz.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>“Vassaus” ce dit li rois “entandez ca a mi:</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Vendredi amenez a la cour vostre ami,</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>45</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>“Or iert cil encusez qui ceanz me bouta.”</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>“Et que c'est?” dit li enfes “nus ne le set par m'ame</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Fors que Dieux seulcment, vous et moi et ma fame.”</t>
+          <t>Atant le duc Richart de la se depparty.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ne sot que senefie, adonc le demanda.</t>
+          <t>Dont venoyt ne qu'il quiert ne qui l'amena la.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>“Pere” dist li valles “dites moi l'achoison</t>
+          <t>“Comment,” se dist Richart, “ne fus tu pas pieca</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Coument pourrai ouvrer ne par quel achoison;</t>
+          <t>Seneschal de ma court et mourus ung an a?”</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Non pour ce li dist il auques de son talent.</t>
+          <t>Seneschal de ma court et mourus ung an a?”</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>“Tesiez, pere” dist il “trop est gentil et franche.”</t>
+          <t>“Ouy,” dist l'escuier, “seneschaulx ay je esté</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>“Voire, fiuz, bien verras quelle en iert la prouvanche.”</t>
+          <t>De toute vostre court, mais je suis trespassé.”</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pardonnez moi le cart, dont sui en soupecon.”</t>
+          <t>De toute vostre court, mais je suis trespassé.”</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>“Non ferai” dist li rois “pour le tresor Oton;</t>
+          <t>“Tu dis voir,” dist Richart, “il y a ung an passé.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ou avant l'amerras ou nostre amor define.”</t>
+          <t>Je ne scay quelz viz diables t'ont ore suxité.”</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vez ci mon anemi a tort contre nature.”</t>
+          <t>Je ne scay quelz viz diables t'ont ore suxité.”</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>“Vous mentez” dist la dame “coume faus et parjure;</t>
+          <t>“Sire,” dist l'escuier, “n'ayés pas esperance</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mout ai mal emploiee toute la nourreture.</t>
+          <t>Que suxité soye je, mais ja fais ma penance,</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rois, onze anz l'ai gardé par dedanz une croute,</t>
+          <t>Que Helequin conquist du tout a sa plaisance.”</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Plus ne le vueil celer” dist la felle, l'estoute.</t>
+          <t>“Comment,” se dist Richart, “est il bien si hardy</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>“Rois, faites lai mander” dist la felle, la gloute.</t>
+          <t>Que sans mon congé chasse en ceste forest cy?</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Plus ne le vueil celer” dist la felle, l'estoute.</t>
+          <t>Ainsi scavray qu'il est et parleray a luy.”</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>“Rois, faites lai mander” dist la felle, la gloute.</t>
+          <t>“Sire,” dist l'escuier, “par la foy que vous doy,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>“Vollentiers” dist li rois, qui bien set a cai moute.</t>
+          <t>Je le vous monstreray par la foy que vous doy.”</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>“Rois, faites lai mander” dist la felle, la gloute.</t>
+          <t>Je le vous monstreray par la foy que vous doy.”</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>“Vollentiers” dist li rois, qui bien set a cai moute.</t>
+          <t>“Amys,” se dit Richart, “par fine amour t'en proy.”</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tout maintenant fu pris et saisis li donziaux</t>
+          <t>L'escuier y mena Richart avecques soy</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>132</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Qui sans congé l'a faict en la forest entrer.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>“Amis,” dist Helequin, “tu le m'arras compter.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Dieu qui est nostre maistre nous a donné congé</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>184</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Comment les charbonniers l'avoient ainsi laissés.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>“Par foy,” dist duc Richart, “je suis tous esbahis</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Que les charbonniers qui passent cy jour et nuys</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>343</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Qui apres vo mort puisse Normandië tenir.”</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>“Seigneurs,” ce dist le duc, “quant vous le me loés,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Je m'accord voullentiers tout a vo voulentés,</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>349</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Car plus belle trouver a mon gré ne pourroye.”</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>“Sire,” font les barons, “Dieu vous en envoit joye!</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Plaise vous l'espouser quant vo cueur si octroye.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>359</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Et fist mander Richart pour dire son couraige.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>“Sire,” dist le dïable, “vous estes mon mary,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Et je suis vostre femme, mais trop mallade suy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>363</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Que m'octroyés ung don par la vostre mercy.”</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>“Demandés,” dist le duc, “et vous n'y fauldrés mye.”</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>“Sire, je vous supplie, s'i fault que je devie,</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>371</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Veillés mon corps la nuict ains que soye enterree.”</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>“Dame,” ce dist Richart, “bien m'y vueil octroyer</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Que, se vous trespassés, de vous la nuict veiller</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>416</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>De moy avés päour! Je le voy bien et scay.”</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>“Par ma foy,” dist Richart, “vous y mentés. Non ay!</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Car oncques pour personne ma coulleur ne muay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>433</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Voir oncques n'euz päour en tournoy ne en guerre.”</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>“Richart,” se dist le corps, “dis tu que je me serre?</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Pourquoy sachas tu donc l'espeë hors du feurre</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>439</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mortë en celle biere quant on vous mist icy?”</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>“Nanil,” se dist le corps, “ains entoye pasmee</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Par une soif que j'eu trop grant une vespree,</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>451</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Mieulx ne me pourrïés ma santé avancer</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Que de m'en apporter.” Lors Richart y alla,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mais ce fut fol ydee. L'ennemy se leva</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>468</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>A la biere s'en vint, si l'a dedans couché.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>“Comment,” dist il, “faulx diable, m'as tu si engigné</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Qu'en tant mon chevallier as mort et despecé</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>489</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Du diable qui luy avoit fait honte et diffame.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>“Ne chantés,” dist Richart, “seigneurs, plus pour ma femme.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Les grans diables d'enfer en puissent porter l'ame!”</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>491</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Les grans diables d'enfer en puissent porter l'ame!”</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>“Si,” font il. “Je scay bien que ce estoit ung diable</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Que j'avoye espousé, le tresplus decepuable</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>501</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sire, ne soyez ja pour ce desconforté.”</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>“Non suis je,” dist Richart, “mais trop suis tourmenté</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Que ce diable a sept ans ou plus o moy esté.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>524</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Ou qu'elz voient le duc hault l'ont arraisonné:</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>“Comment, sire,” font ilz, “estes vous rassotté</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Qui ainsi q'ung reclus vous tenés enserré,</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>575</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Brundemor vint au duc si l'a a raison mis:</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>“Sire,” dist Brundemor, “ai ge fait vostre gré.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Me suis je en vostre guerre bien loyaulment prouvé?”</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>577</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Me suis je en vostre guerre bien loyaulment prouvé?”</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>“Ouÿ,” se dist Richart, “preux estes et sené!</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Huy m'avez fait l'honneur, courtoisie et bonté,</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>583</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pourtant que me vueillés venir querre ou mander.”</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>“Sire,” dist Brundemor, “je m'en attens a vous.”</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Lors se sont departy Richart et ses gens tous</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>611</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Se vous ne voulez estre couart et mensonger.”</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>“Couart,” se dist Richart, “et pourquoy le seroie?</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Se ne sera des mors pour chose que je voye.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>619</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Vous menray en tel lieu ou vous avrés päour.”</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>“Beaulx amis,” dist Richart, “or ne dis pas ainsi,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Car oncques n'euz päour depuis que je nasqui.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>621</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Car oncques n'euz päour depuis que je nasqui.”</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>“Par mon chef, sire duc,” ce respond l'ennemy,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>“Si avrés vous päour ains le jour esclarcy,</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>624</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Se d'avec moy venir faites vostre devoir.”</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>“Ouÿ, voir,” dist Richart, “je vueil aller scavoir</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Se tu me mentiras ou tu me diras voir</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>633</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Qui sont ses gens armés qu'enmy ces champs je voy.”</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>“Sire,” ce dist le diable, “ains qu'il soilt jour, je croy,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Avrés par eulx, je croy, päour et grant esfroy.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>651</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pour moy se combatra en bataille ordonnee.”</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>“Or allés,” dist le roy, “se vous en delivrés.”</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>“Sire,” dist Brundemor, “si com vous commandés.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>652</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>“Or allés,” dist le roy, “se vous en delivrés.”</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>“Sire,” dist Brundemor, “si com vous commandés.”</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Richart fit de ses armes garny et apprestés,</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>668</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Quant Burgifer les coups du duc Richart senty:</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>“Sire,” dist il au duc, “je suis tout esbahy.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Comment avés esté si fol ne si hardy</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>673</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Aussi le perdrés vous, je le vous certifie.”</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>“Amis,” ce dist Richart, “ne te crains une allie.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fay du pis que pourras, et si ne te fain mie.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>675</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Fay du pis que pourras, et si ne te fain mie.”</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>“Sire,” dist Burgifer, “ung petit m'entendés.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Je vous prie et requier: dictes moy se scavés</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>678</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Qui est ce chevallier pour qui vous combatés.”</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>“Par ma foy,” dist Richart, “je le congnoys assés:</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Il est moult vaillant homme, hardy, puissant et fors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>683</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Se bien ne m'eust aidé. Certes, c'est ung bon corps.”</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>“Le duc,” dist Burgifer, “com as folle pensee!</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Saichés c'est ung diable pour qui tu fais merlee,</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>688</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Puis dist a Burgifer: “Bien croy que tu te mens.”</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>“Non fay,” se dist le diable, “car il a moult long temps</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Qu'en enfer se vanta de vous faire tourmens</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>696</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Et ainsi l'a il fait maintenent, bien le voy.”</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>“Non avoit,” dist Richart, “car oncques päour n'oy.”</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>“Non?” ce dist Burgifer, “or vous tenés ung po</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>697</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>“Non avoit,” dist Richart, “car oncques päour n'oy.”</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>“Non?” ce dist Burgifer, “or vous tenés ung po</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Et vous scavrés s'eüstes oncques päour n'effroy</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>723</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Quant le duc ouyt ses motz, si dist en sa pensee:</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>“Par ma foy,” dist Richart, “ce diable cy dit voir!</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Les fortunes qu'ay eues scait bien ramentevoir.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>727</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ce que fait ens ou ciecle? En avés le povoir?”</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>“Ouÿ,” dist Burgifer, “nous scavons par congé</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Quanque font toute gent qui vivent en peché,</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>731</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nous n'en scavons plus riens, tout avons oublié.”</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>“Burgifer,” dist Richart, “je te pry or me dy,</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Ce Brundemor pour qui je me combas a ty,</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>735</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Qu'en guise d'une femme j'espousay et plevvy?”</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>“Ouÿ,” dist Burgifer, “c'est bien verité pure.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>C'est celle que baillastes sept ans a nourriture.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>737</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>C'est celle que baillastes sept ans a nourriture.”</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>“Par mon chef,” dist Richart, “mis m'as en adventure,</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Mais encor luy vint il d'assés franche nature</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>751</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mais ne luy peust mesfaire. Lors luy dist a hault cry:</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>“Comment,” ce dist Richart, “faulx diables Burgifer,</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tu es plus dur assés que n'est assier ne fer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>779</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Que faulcement luy as par ta force ravie.”</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>“Sire,” dist Burgifer, “et je m'en dessaisy,</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Et voyant a voz yeulx la luy rens des issi.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>787</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Que Burgifer luy eut tollue par envie.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>“Brundemor,” dist Richart, “il m'en convient aller</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Puis que jay la bataille fait du tout achever.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>791</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mais monstre moy la voye par ou doy retourner.”</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>“Sire,” dist Brundemor, “tout a vostre commant,</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Car mieulx y suis tenu que vous n'allés pensant,</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>795</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Et si fu vostre femme sept ans en ung tenant.”</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>“Tant suis je,” dist Richart, “au cueur plus courroucés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Quant ung diable si m'a tellement engignés.</t>
         </is>
       </c>
     </row>
@@ -3640,41 +3642,41 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Et te pourront bien estre maint pechiés pardonnés.”</t>
+          <t>D'ardir l'un apres l'atre. Adon lo Qadosh li dit,</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>“Dame,” s'a dit le riche, “ce mesel la sermonne,</t>
+          <t>“Fetes grant fo, mavés on!” De blamer s'anhardit.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Je ne li donray mie une petite pomme.”</t>
+          <t>Mot bele fu sa fin d'enivré Dan Bandit.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Li angelz l'enporterent et en haut a chanté:</t>
+          <t>E dit: “c'eit por ma meinie que me vëes ci deseperer,</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>“Te Deum laudamus” pour la bonne vie qu'il avoit menee</t>
+          <t>Ce n'eit pas por mon cors.” Ardir se fit san demorer.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Et pour ce qu'il avoit tant de mal enduré</t>
+          <t>Ce fu R. Shimeon Sofer qui si bien saveit orer.</t>
         </is>
       </c>
     </row>
@@ -3684,6 +3686,221 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>37</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Seur mambres et seur vie, seur ses eritemanz.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>“Vassaus” ce dit li rois “entandez ca a mi:</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Vendredi amenez a la cour vostre ami,</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>45</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>“Or iert cil encusez qui ceanz me bouta.”</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>“Et que c'est?” dit li enfes “nus ne le set par m'ame</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fors que Dieux seulcment, vous et moi et ma fame.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>57</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ne sot que senefie, adonc le demanda.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>“Pere” dist li valles “dites moi l'achoison</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Coument pourrai ouvrer ne par quel achoison;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>81</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Non pour ce li dist il auques de son talent.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>“Tesiez, pere” dist il “trop est gentil et franche.”</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>“Voire, fiuz, bien verras quelle en iert la prouvanche.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pardonnez moi le cart, dont sui en soupecon.”</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>“Non ferai” dist li rois “pour le tresor Oton;</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ou avant l'amerras ou nostre amor define.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>111</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vez ci mon anemi a tort contre nature.”</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>“Vous mentez” dist la dame “coume faus et parjure;</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mout ai mal emploiee toute la nourreture.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>118</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rois, onze anz l'ai gardé par dedanz une croute,</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Plus ne le vueil celer” dist la felle, l'estoute.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>“Rois, faites lai mander” dist la felle, la gloute.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>119</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Plus ne le vueil celer” dist la felle, l'estoute.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>“Rois, faites lai mander” dist la felle, la gloute.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>“Vollentiers” dist li rois, qui bien set a cai moute.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>120</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>“Rois, faites lai mander” dist la felle, la gloute.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>“Vollentiers” dist li rois, qui bien set a cai moute.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tout maintenant fu pris et saisis li donziaux</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3719,152 +3936,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Com cil qui pourchassoit bien sa mauvese fin.</t>
+          <t>Et te pourront bien estre maint pechiés pardonnés.”</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>“Amis,” dit li mauves, “je vueil a toy parler;</t>
+          <t>“Dame,” s'a dit le riche, “ce mesel la sermonne,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tu t'ies rendus a moy, si me dois mult amer.”</t>
+          <t>Je ne li donray mie une petite pomme.”</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Je feré vo vouloir, qui qu'en doie peser.”</t>
+          <t>Li angelz l'enporterent et en haut a chanté:</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>“Frere,” dit li mauves, “je me sui porpensez:</t>
+          <t>“Te Deum laudamus” pour la bonne vie qu'il avoit menee</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tu feras une chose qui son non sera dez;</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>53</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Par poer demandast servise e homage.”</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>“Ou est ta seignorye?” dist ly féal tyrant;.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>“Unqes ne vi roi aler pain querant;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>65</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Qe vus m'alevasles, dont jeo vus defi.”</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>“M'avez ore defié,” dist sire Belial,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>“De ceo jour en avant vus garderay puer male;</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>141</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Qe mercy li requist de sa mesprisoun.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>“Sire,” dist ele, “mercy, chevaler allosé,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>De cest lase cheitif prenge toi pité,</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>179</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Si l'ameigne ouf ly en bon salvacioun.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>“Demorés,” dist il, “cy une bref seisoun,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tant com jeo rethorne pour mener vus a mesoun;</t>
+          <t>Et pour ce qu'il avoit tant de mal enduré</t>
         </is>
       </c>
     </row>
@@ -4190,6 +4292,196 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Com cil qui pourchassoit bien sa mauvese fin.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>“Amis,” dit li mauves, “je vueil a toy parler;</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tu t'ies rendus a moy, si me dois mult amer.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Je feré vo vouloir, qui qu'en doie peser.”</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>“Frere,” dit li mauves, “je me sui porpensez:</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tu feras une chose qui son non sera dez;</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>53</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Par poer demandast servise e homage.”</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>“Ou est ta seignorye?” dist ly féal tyrant;.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>“Unqes ne vi roi aler pain querant;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>65</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Qe vus m'alevasles, dont jeo vus defi.”</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>“M'avez ore defié,” dist sire Belial,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>“De ceo jour en avant vus garderay puer male;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>141</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Qe mercy li requist de sa mesprisoun.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>“Sire,” dist ele, “mercy, chevaler allosé,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>De cest lase cheitif prenge toi pité,</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>179</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Si l'ameigne ouf ly en bon salvacioun.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>“Demorés,” dist il, “cy une bref seisoun,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tant com jeo rethorne pour mener vus a mesoun;</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4855,6 +5147,181 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>89</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ne le puet entroublier, s'en ai doleur amere.”</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>“Biaus niés,” ce dist la dame, “ses tu que tu feras?</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Il sera demain Pasques, pas ne te viestiras;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>125</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Si me dittes le voir, si ferés courtoisie.”</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>“Dame,” dist li curés, “il est en l'Escriture</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Que qui voet Dieu siervir el faire s'ame pure,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>333</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ce n'est qu'une truande, je le vous di pour voir.”</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>“Par foy”, ce dist la damme, “g'irai a li parler.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Que Dieus voelle ma fille, si li plaist, ramener;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>353</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sa fille respondi: “Damme, Dieus vous doinst joie!”</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>“Amen, que Dieus l'envoie!” la damme respondi,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>“Il a vingt ans et plus certes que ne le vi;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>436</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ma suer, bien vous en croi quant me proumetés tant,</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Si parleray a li.” Lors s'en parti atant.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Viers l'evesque se traist, qui vint apriés diner</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>449</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>On non de Jhesucris vostre consel requier.”</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>“Volentiers le feray,” dist il, “m'amie ciere.”</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Il s'aproca du lit, cascun se traist ariere,</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>581</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ains neuf jours acomplis vos cuers joians sera.”</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>“Et comment poroit yestre?” dist la dame senee.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Dieudonnee li dist: “Mout bien, se Dieu l'agree.”</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5748,7 +6215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -6223,7 +6690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -6258,7 +6725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -6351,39 +6818,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/outputs/a/quote_types/list_q_b.xlsx
+++ b/outputs/a/quote_types/list_q_b.xlsx
@@ -12,23 +12,24 @@
     <sheet name="A03 vie saint basille" sheetId="3" r:id="rId3"/>
     <sheet name="A04 vie saint christofle" sheetId="4" r:id="rId4"/>
     <sheet name="A05 vie sainte dieudonnee" sheetId="5" r:id="rId5"/>
-    <sheet name="A06 saint jean evangeliste" sheetId="6" r:id="rId6"/>
-    <sheet name="A07 vie saint jean paulus" sheetId="7" r:id="rId7"/>
-    <sheet name="A08 vie glorieux confesseur" sheetId="8" r:id="rId8"/>
-    <sheet name="A09 vie saint leu" sheetId="9" r:id="rId9"/>
-    <sheet name="A10 poines enfer" sheetId="10" r:id="rId10"/>
-    <sheet name="A11 vie saint sebastien" sheetId="11" r:id="rId11"/>
-    <sheet name="A12 miracle saint servais" sheetId="12" r:id="rId12"/>
-    <sheet name="A13 vie seint thibault" sheetId="13" r:id="rId13"/>
-    <sheet name="A16 guillaume angleterre" sheetId="14" r:id="rId14"/>
-    <sheet name="A17 robert deable" sheetId="15" r:id="rId15"/>
-    <sheet name="A18 richart sans peour" sheetId="16" r:id="rId16"/>
-    <sheet name="A19 elegy troyes" sheetId="17" r:id="rId17"/>
-    <sheet name="A20 vieillards tués" sheetId="18" r:id="rId18"/>
-    <sheet name="A21 mauvais riche homme" sheetId="19" r:id="rId19"/>
-    <sheet name="A22 jeu des dez" sheetId="20" r:id="rId20"/>
-    <sheet name="A23 roy avoit amie" sheetId="21" r:id="rId21"/>
-    <sheet name="A25 quatre sereurs" sheetId="22" r:id="rId22"/>
+    <sheet name="A06 vie saint gregoire" sheetId="6" r:id="rId6"/>
+    <sheet name="A07 saint jean evangeliste" sheetId="7" r:id="rId7"/>
+    <sheet name="A08 vie saint jean paulus" sheetId="8" r:id="rId8"/>
+    <sheet name="A09 vie glorieux confesseur" sheetId="9" r:id="rId9"/>
+    <sheet name="A10 vie saint leu" sheetId="10" r:id="rId10"/>
+    <sheet name="A11 poines enfer" sheetId="11" r:id="rId11"/>
+    <sheet name="A12 vie saint sebastien" sheetId="12" r:id="rId12"/>
+    <sheet name="A13 miracle saint servais" sheetId="13" r:id="rId13"/>
+    <sheet name="A14 vie seint thibault" sheetId="14" r:id="rId14"/>
+    <sheet name="A17 guillaume angleterre" sheetId="15" r:id="rId15"/>
+    <sheet name="A18 robert deable" sheetId="16" r:id="rId16"/>
+    <sheet name="A19 richart sans peour" sheetId="17" r:id="rId17"/>
+    <sheet name="A20 elegy troyes" sheetId="18" r:id="rId18"/>
+    <sheet name="A21 vieillards tués" sheetId="19" r:id="rId19"/>
+    <sheet name="A22 mauvais riche homme" sheetId="20" r:id="rId20"/>
+    <sheet name="A23 jeu des dez" sheetId="21" r:id="rId21"/>
+    <sheet name="A24 roy avoit amie" sheetId="22" r:id="rId22"/>
+    <sheet name="A26 quatre sereurs" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -687,6 +688,101 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>141</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Son lit fu d'une napte; puis l'ont aresonné.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>“Sire,” font il, “de Dieu soiés vous benaÿ.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Venez vous en a Sens, trop sommes esbahi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>143</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Venez vous en a Sens, trop sommes esbahi.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dieu par nous le vous mande.” Le proudoms respondi:</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>“Jamez tant que je vive ne partiroy de cy,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>173</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Et puis a un jenoil s'alla agenoillier:</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>“Treschier sire,” fet elle “vous soiés bien venu.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Comment vous estes vous si longuement tenu</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -860,7 +956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -895,7 +991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D40"/>
   <sheetViews>
@@ -1710,7 +1806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -1925,7 +2021,322 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>115</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ne vous ne vostre pere (dont Dieus asoille l'ame!),</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Que vous le fassiez rendre.” Cil qui fu sans disfame,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Li dist: “Je le weil bien, foy que doy Nostre Dame!”</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>169</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Avras et grans meschief; mais Dieus, qui sur tous vaut,</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Le te rendra moult bien.” Lors la vois s'en parti;</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Et le roy d'Angleterre requist a Dieu merci,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>183</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>“Dame, a matines vois; car par temps sonneront.”</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>“Hé! roy,” dist la roïne, “vos amours fausses sont;</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mes les moies sont vraies, jamés ne fauseront.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>286</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Que l'un de mes enfans mengier me covendra,</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Se je n'ai char ou pain.” Lors le roy souspira;</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Il a traite s'espee, sa chausce desferma</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>295</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Se je vous voi couper. Ja, se Dieu plest, mes dens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N'usseront vostre char.” Le roi, qui fu dolens,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Respondi: “Douce suer, ne puis trouver pourpens</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>444</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forment prist a pleurer et dist: “Vierge Marie,</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Or ai je tout perdu.” Lors vint celle partie</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ou la bource au marcheant fu pendant demouree,</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>592</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Doucement dist: “Seingneur, el non du dous Jhesus,</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Metez moi en vos nef.” L'un d'eus a respondu:</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>“Biaus amis, dont viens tu? Moult as sousfert de paine;</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>686</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Je vous ai trop cousté: Dieu me doint vivre tant</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Que le vous puisse rendre.” Lors le preudon pleurant</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Li fist donner dix livres et un cheval courant;</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>718</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Le fortier dist: “Sire, bersant vont par le bois;</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ceste beste ont tuee.” Le seingneur fu courtois,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Il dist: “Je leur pardoins, pour Dieu, a ceste fois;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>771</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>“Est donques celui mort a qui ce cornet fu?”</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>“Ouil, sire,” dist il, “puis qu'il n'est revenu.”</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Adonques s'en parti, plus n'i a atendu;</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>797</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Se le roy revenoit de quoy vous me parlés,</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Seroit il receus?” Son neveu dist errant:</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>“Ouïl, se Dieus me gart, a sollanpnité grant;</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>801</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Serés mon seneschal des or mes en avant.”</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>“Non ferai,” dit le roy, “l'osfice n'ai pas chiere;</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Que, se le roy Guillaume repairoit ca arriere,</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>824</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cëans a tel jouel qui vault, je vous afi,</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Plus de tiex trente anniaus.” La dame respondi:</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>“Je ne weil que l'annel.” Adont le roy li tant;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>825</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Plus de tiex trente anniaus.” La dame respondi:</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>“Je ne weil que l'annel.” Adont le roy li tant;</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>En soupirant li dist: “Je vous jur lëaument</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -1957,261 +2368,261 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ne vous ne vostre pere (dont Dieus asoille l'ame!),</t>
+          <t>N'en sai nule ne soit ou trop haute ou trop basse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Que vous le fassiez rendre.” Cil qui fu sans disfame,</t>
+          <t>Ou que ne m'apartiengne.” L'un d'euz dist sanz espasse:</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Li dist: “Je le weil bien, foy que doy Nostre Dame!”</t>
+          <t>“Chier sire, je sai telle dont ja n'arez vergoigne;</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Avras et grans meschief; mais Dieus, qui sur tous vaut,</t>
+          <t>Il a mandé Robert et li dit son avis:</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Le te rendra moult bien.” Lors la vois s'en parti;</t>
+          <t>“Biaux filz,” ce dit le duc, “chevalier vous vueil faire;</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Et le roy d'Angleterre requist a Dieu merci,</t>
+          <t>Mais muer vous faudra et changier vostre afaire.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>286</v>
+        <v>193</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Que l'un de mes enfans mengier me covendra,</t>
+          <t>Aus bons, mais grever doit les felons de put aire.”</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Se je n'ai char ou pain.” Lors le roy souspira;</t>
+          <t>“Bien l'acort,” dist Robert, “mais par foy ne me chaut</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Il a traite s'espee, sa chausce desferma</t>
+          <t>En quel estat je soie, chevalier ou ribaut,</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Se je vous voi couper. Ja, se Dieu plest, mes dens</t>
+          <t>Qui de cuer le verroie morir devant mes yex,</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N'usseront vostre char.” Le roi, qui fu dolens,</t>
+          <t>Trop m'a fait de courous.” Lors parla uns hons viex</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Respondi: “Douce suer, ne puis trouver pourpens</t>
+          <t>Et dist: “Sire, je lo que Robert soit mandez</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>444</v>
+        <v>360</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Forment prist a pleurer et dist: “Vierge Marie,</t>
+          <t>La duchesse dist: “Filz, certes la coupe est moie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Or ai je tout perdu.” Lors vint celle partie</t>
+          <t>De vostre mauvaistie.” Lors li conta la voie</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ou la bource au marcheant fu pendant demouree,</t>
+          <t>Comment elle l'avoit au deable donné</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>592</v>
+        <v>419</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Doucement dist: “Seingneur, el non du dous Jhesus,</t>
+          <t>Est devenu pereschierres; il se moque de nous.”</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Metez moi en vos nef.” L'un d'eus a respondu:</t>
+          <t>“Non fais ce,” dist Robert, “par la foy que doi vous;</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>“Biaus amis, dont viens tu? Moult as sousfert de paine;</t>
+          <t>Criez a Dieu merci et il vous sera dous.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Je vous ai trop cousté: Dieu me doint vivre tant</t>
+          <t>Que laissaisse l'embler; ne porroie estre en pais.”</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Que le vous puisse rendre.” Lors le preudon pleurant</t>
+          <t>“Ne moi,” ce dist li autres. Touz furent d'un acort</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Li fist donner dix livres et un cheval courant;</t>
+          <t>Que ne lairont l'embler dessiques a la mort,</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>718</v>
+        <v>500</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Le fortier dist: “Sire, bersant vont par le bois;</t>
+          <t>Quant le pappe l'oÿ, si li a dit em bas:</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ceste beste ont tuee.” Le seingneur fu courtois,</t>
+          <t>“Biaus amis, dont es tu?” Robert dist sens espas:</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Il dist: “Je leur pardoins, pour Dieu, a ceste fois;</t>
+          <t>“A Roen la cité fu né, ce n'est pas fable,</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>“Est donques celui mort a qui ce cornet fu?”</t>
+          <t>Et qu'il s'est combatu a escu et a lance.”</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>“Ouil, sire,” dist il, “puis qu'il n'est revenu.”</t>
+          <t>“Pour tant vous envoit Diex,” dist le roy, “grant meschance.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Adonques s'en parti, plus n'i a atendu;</t>
+          <t>Enseignier la devez et vous l'afolez toute.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>797</v>
+        <v>839</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Se le roy revenoit de quoy vous me parlés,</t>
+          <t>Par trois foiz sus paiens; moult y souffri de chaut.”</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Seroit il receus?” Son neveu dist errant:</t>
+          <t>“Seneschal,” dist le roy, “pour le cors saint Thibaut,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>“Ouïl, se Dieus me gart, a sollanpnité grant;</t>
+          <t>Fustes vous la pour moi?” “Ouïl, se Diex me saut.”</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>801</v>
+        <v>841</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Serés mon seneschal des or mes en avant.”</t>
+          <t>Fustes vous la pour moi?” “Ouïl, se Diex me saut.”</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>“Non ferai,” dit le roy, “l'osfice n'ai pas chiere;</t>
+          <t>“Seneschal,” dist le roy, “preuz estes et gentis,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Que, se le roy Guillaume repairoit ca arriere,</t>
+          <t>Par m'ame, je cuidoie que fussiez anemis.”</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>824</v>
+        <v>843</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cëans a tel jouel qui vault, je vous afi,</t>
+          <t>Par m'ame, je cuidoie que fussiez anemis.”</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Plus de tiex trente anniaus.” La dame respondi:</t>
+          <t>“Sire,” dist le traitre, “n'en soiez esbahis;</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>“Je ne weil que l'annel.” Adont le roy li tant;</t>
+          <t>Loial cuer ne faut point au fort a ses amis.”</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>825</v>
+        <v>885</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Plus de tiex trente anniaus.” La dame respondi:</t>
+          <t>Qui est le saint preudomme dont vous alez parlant?”</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>“Je ne weil que l'annel.” Adont le roy li tant;</t>
+          <t>“Sire,” dist la pucelle, qui n'estoit pas vilainne,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>En soupirant li dist: “Je vous jur lëaument</t>
+          <t>“Je vous dirai du fait la verité certaine.”</t>
         </is>
       </c>
     </row>
@@ -2220,302 +2631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>32</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>N'en sai nule ne soit ou trop haute ou trop basse</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ou que ne m'apartiengne.” L'un d'euz dist sanz espasse:</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>“Chier sire, je sai telle dont ja n'arez vergoigne;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>189</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Il a mandé Robert et li dit son avis:</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>“Biaux filz,” ce dit le duc, “chevalier vous vueil faire;</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mais muer vous faudra et changier vostre afaire.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>193</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Aus bons, mais grever doit les felons de put aire.”</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>“Bien l'acort,” dist Robert, “mais par foy ne me chaut</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>En quel estat je soie, chevalier ou ribaut,</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>272</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Qui de cuer le verroie morir devant mes yex,</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Trop m'a fait de courous.” Lors parla uns hons viex</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Et dist: “Sire, je lo que Robert soit mandez</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>360</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>La duchesse dist: “Filz, certes la coupe est moie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>De vostre mauvaistie.” Lors li conta la voie</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Comment elle l'avoit au deable donné</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>419</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Est devenu pereschierres; il se moque de nous.”</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>“Non fais ce,” dist Robert, “par la foy que doi vous;</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Criez a Dieu merci et il vous sera dous.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>425</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Que laissaisse l'embler; ne porroie estre en pais.”</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>“Ne moi,” ce dist li autres. Touz furent d'un acort</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Que ne lairont l'embler dessiques a la mort,</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>500</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Quant le pappe l'oÿ, si li a dit em bas:</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>“Biaus amis, dont es tu?” Robert dist sens espas:</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>“A Roen la cité fu né, ce n'est pas fable,</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>744</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Et qu'il s'est combatu a escu et a lance.”</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>“Pour tant vous envoit Diex,” dist le roy, “grant meschance.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Enseignier la devez et vous l'afolez toute.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>839</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Par trois foiz sus paiens; moult y souffri de chaut.”</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>“Seneschal,” dist le roy, “pour le cors saint Thibaut,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Fustes vous la pour moi?” “Ouïl, se Diex me saut.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>841</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Fustes vous la pour moi?” “Ouïl, se Diex me saut.”</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>“Seneschal,” dist le roy, “preuz estes et gentis,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Par m'ame, je cuidoie que fussiez anemis.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>843</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Par m'ame, je cuidoie que fussiez anemis.”</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>“Sire,” dist le traitre, “n'en soiez esbahis;</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Loial cuer ne faut point au fort a ses amis.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>885</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Qui est le saint preudomme dont vous alez parlant?”</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>“Sire,” dist la pucelle, qui n'estoit pas vilainne,</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>“Je vous dirai du fait la verité certaine.”</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -3610,7 +3726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3685,7 +3801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -3892,81 +4008,6 @@
       <c r="D10" t="inlineStr">
         <is>
           <t>Tout maintenant fu pris et saisis li donziaux</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>29</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Et te pourront bien estre maint pechiés pardonnés.”</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>“Dame,” s'a dit le riche, “ce mesel la sermonne,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Je ne li donray mie une petite pomme.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>77</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Li angelz l'enporterent et en haut a chanté:</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>“Te Deum laudamus” pour la bonne vie qu'il avoit menee</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Et pour ce qu'il avoit tant de mal enduré</t>
         </is>
       </c>
     </row>
@@ -4326,37 +4367,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Com cil qui pourchassoit bien sa mauvese fin.</t>
+          <t>Et te pourront bien estre maint pechiés pardonnés.”</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>“Amis,” dit li mauves, “je vueil a toy parler;</t>
+          <t>“Dame,” s'a dit le riche, “ce mesel la sermonne,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tu t'ies rendus a moy, si me dois mult amer.”</t>
+          <t>Je ne li donray mie une petite pomme.”</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Je feré vo vouloir, qui qu'en doie peser.”</t>
+          <t>Li angelz l'enporterent et en haut a chanté:</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>“Frere,” dit li mauves, “je me sui porpensez:</t>
+          <t>“Te Deum laudamus” pour la bonne vie qu'il avoit menee</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tu feras une chose qui son non sera dez;</t>
+          <t>Et pour ce qu'il avoit tant de mal enduré</t>
         </is>
       </c>
     </row>
@@ -4366,6 +4407,81 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Com cil qui pourchassoit bien sa mauvese fin.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>“Amis,” dit li mauves, “je vueil a toy parler;</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tu t'ies rendus a moy, si me dois mult amer.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Je feré vo vouloir, qui qu'en doie peser.”</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>“Frere,” dit li mauves, “je me sui porpensez:</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tu feras une chose qui son non sera dez;</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -4480,7 +4596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -5322,6 +5438,421 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>110</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Et l'enffant maintenant luy a jetté ung ris.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>“He Dieu,” ce dist l'abbé, “porroit ce estre ung filz?</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Se cest ung enfant masle, bon poisson avez pris!”</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>128</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jhesucrist comenca a servir en s'enfance.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>“He Dieu,” se dist l'abbé, “dame sainte Marie,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Com il sera preudon s'il maintient ceste vie!”</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>168</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gregore les regarde; de douleur souspira.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>“Helas!” ce dist Gregore, “Vecy trop grant douleur,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Quant je suis engendré du frere et en la seur.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>207</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>La dame salua du Pere tout puissant.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>“Damoiseau,” dist la dame, “de quel terre estes né?”</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Dist Gregoire: “Je suis d'un estrange contré.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>212</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Si lui resembloit il de mains et de visage.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>“Damoiseau,” dist la dame, “se me voulez aider,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Je vous donray deniers et argent et or mier,</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>222</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Et se je suis vaincus, il vous espousera.”</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>“Damoiseau,” dist la dame, “moult bon conseil y a.”</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A ung de ses barons la besongne conta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>224</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>A ung de ses barons la besongne conta.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>“Dame,” dist le baron, “vostre commant feray.”</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Lors est venu au conte maintenant, sans delay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>234</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Puis si a a sa dame la besongne contee.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>“Se Dieu plaist,” dist Gregoire, “et la Vierge honnoree,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Il sentira au cueur le trenchant de mespee.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>272</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pour dieu, ne m'ochis mie, qui en croix fut pendu.”</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>“Sire,” ce dist Gregoire, “par la foy qu'a Dieu doy,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Puis que vous vous rendez, ja mal ne vous feray;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>280</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>La dame court Grigoire baiser et accoler.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>“Damoiseau,” dist la dame, “vous avez bien ouvré</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Il sera maintenant a ma chartre jetté.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>282</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Il sera maintenant a ma chartre jetté.”</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>“Non sera,” dist Gregoire, “dame, s'il vous agré,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mais quanqu'il a meffait, vous sera amendé,</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>288</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Que jamais en sa vie, il ne vous meffera.”</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>“Sire,” ce dist le conte, “Je feray vo talent.”</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sur saintes euvangiles a juré erraument</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>296</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Doulcement luy a dit: “Vous estes mes amis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Gentilz homs,” dit la dame, “s'espouser me voulez,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>De trestout cest pays serez seignur clamez.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>298</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>De trestout cest pays serez seignur clamez.”</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>“Sire,” font les barons, “bien serez assenez.”</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tant luy ont conseillié qu'il s'i est accordez.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>324</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Je voy que vous sentez au cueur bien grant doulour.”</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>“Non fais,” ce dist Gregoire, “Je suis trestout haytiez.”</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>“Par ma foy, beau sire, donc n'estes vous pas lyez?</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>426</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Et men bailliez la clef, car je la vous demand.”</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>“Sire,” dist le preudom, “je feray vo talent.”</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Et le preudomme en l'eure la roche bien ferma;</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>480</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Je croy qu'il est piecha du siecle trespassé.”</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>“Beau doulz hoste,” font ilz, “se il vous vient a gré,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Menez nous y demain, quant il sera ajourné.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>482</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Menez nous y demain, quant il sera ajourné.”</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>“Seignurs,” dist le preudomme, “je feray vo talent.”</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Lendemain les mena, sans point de delayement,</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>490</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Et saint Gregoire alla bien tost a eulx parler:</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>“Seigneurs,” a dit Gregoire, “ycy, que querez vous?”</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Et ilz lui respondirent a vne voix trestous:</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6215,7 +6746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -6690,7 +7221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -6723,99 +7254,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>141</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Son lit fu d'une napte; puis l'ont aresonné.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>“Sire,” font il, “de Dieu soiés vous benaÿ.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Venez vous en a Sens, trop sommes esbahi.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>143</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Venez vous en a Sens, trop sommes esbahi.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Dieu par nous le vous mande.” Le proudoms respondi:</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>“Jamez tant que je vive ne partiroy de cy,</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>173</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Et puis a un jenoil s'alla agenoillier:</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>“Treschier sire,” fet elle “vous soiés bien venu.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Comment vous estes vous si longuement tenu</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>